--- a/output/fit_clients/fit_round_233.xlsx
+++ b/output/fit_clients/fit_round_233.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1932472331.462863</v>
+        <v>2188668730.60316</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1056743965087907</v>
+        <v>0.08751291774001033</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03531021630256563</v>
+        <v>0.03260155884533811</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>966236152.2653869</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2249238433.159974</v>
+        <v>2561129131.689509</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1177470821323651</v>
+        <v>0.1133543466761212</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04583351627871627</v>
+        <v>0.04948947283225524</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1124619295.226773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4936487343.200686</v>
+        <v>4629827487.547237</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1412837897550187</v>
+        <v>0.1258022860578204</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03173533336778294</v>
+        <v>0.03731253306484096</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>84</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2468243752.102718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3198186725.068083</v>
+        <v>3107791798.826643</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09595493883803788</v>
+        <v>0.09974581633884655</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04043719445435091</v>
+        <v>0.03888961568417861</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1599093419.268935</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1841955925.070942</v>
+        <v>2799320775.03507</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1008158967148678</v>
+        <v>0.09674969511076344</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05048773881765775</v>
+        <v>0.04320804408967707</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>920978009.2227378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2933920984.273776</v>
+        <v>2223617715.641873</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06824913012011108</v>
+        <v>0.0950558507768669</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03576266100425107</v>
+        <v>0.03551331997728438</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>71</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1466960463.386818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3047247518.774056</v>
+        <v>3847253401.056273</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1939256696393254</v>
+        <v>0.1941224642538475</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02059657001823946</v>
+        <v>0.02868568159821688</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>74</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1523623821.721475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1567869866.11075</v>
+        <v>1997234257.423753</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1715954455634535</v>
+        <v>0.1221015790450451</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02648607258278572</v>
+        <v>0.03338905447028875</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>783935019.6140218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3867656501.690239</v>
+        <v>4824461080.073533</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2147502536721111</v>
+        <v>0.1445644697300336</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03513512119149354</v>
+        <v>0.0473242679512278</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>98</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1933828262.457335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3740881872.918766</v>
+        <v>3147145975.31968</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1489218722177643</v>
+        <v>0.1616197585022101</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0447955122041075</v>
+        <v>0.04348848409357737</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>97</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1870440931.026997</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3137285212.372217</v>
+        <v>2261404261.813842</v>
       </c>
       <c r="F12" t="n">
-        <v>0.185740894289464</v>
+        <v>0.1293275238672546</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04387653114945098</v>
+        <v>0.05394881364799799</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>81</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1568642636.735725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3842999445.156745</v>
+        <v>3717636478.823337</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06672010458527342</v>
+        <v>0.09039340235717401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02777294206438053</v>
+        <v>0.03120834419431294</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>78</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1921499785.461972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3587414713.110702</v>
+        <v>3804557349.807824</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1615172335967125</v>
+        <v>0.1594712502991857</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03120490008881098</v>
+        <v>0.0330933486137965</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>77</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1793707348.452249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1654500756.644156</v>
+        <v>1251696258.775896</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07705409634184886</v>
+        <v>0.07271919096653001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04322569205534143</v>
+        <v>0.02998246670051126</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>827250498.8435683</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2639041684.780015</v>
+        <v>2578706680.450691</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08597360685022944</v>
+        <v>0.1008659958161968</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04507212487149408</v>
+        <v>0.03846079154065211</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1319520860.770341</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3635018226.264425</v>
+        <v>4557504642.381228</v>
       </c>
       <c r="F17" t="n">
-        <v>0.140231556941726</v>
+        <v>0.1194196761780018</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05268659289344334</v>
+        <v>0.03668616906105533</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>68</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1817509165.772969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2791921063.442754</v>
+        <v>2425145386.426542</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1407980512842723</v>
+        <v>0.1550799297800146</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02256596325495493</v>
+        <v>0.02931998746317154</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>76</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1395960576.997751</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>886514054.5482537</v>
+        <v>1016748103.847504</v>
       </c>
       <c r="F19" t="n">
-        <v>0.156324910668427</v>
+        <v>0.1883462242293617</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02232436700495572</v>
+        <v>0.02250324617666522</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>443257028.9084193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1822420124.117197</v>
+        <v>2277080904.532784</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1119102362593704</v>
+        <v>0.1455464565296496</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02030189296204657</v>
+        <v>0.0235161280279993</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>911210107.3128173</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1760040569.53424</v>
+        <v>1791124731.065035</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09892754009955848</v>
+        <v>0.06383162909482236</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03119106404670389</v>
+        <v>0.03619094995436677</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>880020343.6718829</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3830241473.401585</v>
+        <v>2863067532.366063</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09128754024676393</v>
+        <v>0.1338277037877841</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04083617105844373</v>
+        <v>0.05236540640218006</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1915120748.499336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1075296746.097078</v>
+        <v>1011895229.550139</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1256683459397104</v>
+        <v>0.1821717976928608</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05378583819420039</v>
+        <v>0.05273382001104696</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>537648430.5478355</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3007614866.54359</v>
+        <v>3637113152.056577</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1073346795363853</v>
+        <v>0.09550067869920373</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03057173380464325</v>
+        <v>0.02648929394732197</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>69</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1503807467.985607</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1088911206.030076</v>
+        <v>978294745.2926222</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1174666445026021</v>
+        <v>0.1095668203826691</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02219310128907639</v>
+        <v>0.03095913105594117</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>544455646.5469509</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1420705950.064061</v>
+        <v>1239310250.946184</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09214767137594689</v>
+        <v>0.1128706083669589</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0329522666301972</v>
+        <v>0.02467577632139883</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>710353050.0430958</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4255037778.137601</v>
+        <v>3215676586.637217</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1386901048833354</v>
+        <v>0.1248457246699688</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01904904613972041</v>
+        <v>0.01834978881163772</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2127518886.518282</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3375763085.41104</v>
+        <v>2955685286.464686</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1378576827208766</v>
+        <v>0.1182049315157564</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03070026198588479</v>
+        <v>0.04702143608938698</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>75</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1687881586.527985</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5560887851.554092</v>
+        <v>4691633831.882605</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1468600527633134</v>
+        <v>0.138402406107206</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03400320443409608</v>
+        <v>0.03506149982783929</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>103</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2780443834.430653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1775932155.845341</v>
+        <v>1593828265.131259</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09927680537294309</v>
+        <v>0.1065346621273176</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03155355596194181</v>
+        <v>0.03649497769408091</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>887966089.8352827</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1481947414.216872</v>
+        <v>1031901492.049522</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09156797371248523</v>
+        <v>0.08385491479022128</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05258378145391755</v>
+        <v>0.04811534854232301</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>740973592.1832452</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1724843507.834498</v>
+        <v>1774747215.925103</v>
       </c>
       <c r="F32" t="n">
-        <v>0.115293901859036</v>
+        <v>0.1038260491346517</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02735854831295531</v>
+        <v>0.02507505536193631</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>862421868.8412937</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2453277924.343682</v>
+        <v>2225172701.494647</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1467902151492409</v>
+        <v>0.1757649721058599</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05511625811174229</v>
+        <v>0.0429568248108688</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>68</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1226639004.334634</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1297496338.139651</v>
+        <v>1196257391.897384</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07676592058085975</v>
+        <v>0.09430374882705363</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02092415572860884</v>
+        <v>0.01765303940165592</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>648748158.1672376</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1065998467.27299</v>
+        <v>1132134115.176324</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1035499722704004</v>
+        <v>0.07488412962971405</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0446120995154114</v>
+        <v>0.04494682300288758</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>532999237.723466</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2182514250.061294</v>
+        <v>3224207718.057546</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1262167781894847</v>
+        <v>0.1242326991888966</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02823478012141257</v>
+        <v>0.02449584433141463</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1091257172.429689</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2360961266.242548</v>
+        <v>2452403072.757516</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08552577379747496</v>
+        <v>0.09156680206796912</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04192890118858677</v>
+        <v>0.03037668921460731</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>61</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1180480710.051319</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1656634119.451145</v>
+        <v>2109115205.523389</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09638228817107171</v>
+        <v>0.08197989996047919</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03849569168291989</v>
+        <v>0.03743677434833192</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>828317086.8447752</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1730581950.655675</v>
+        <v>1940691382.045582</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1806648248854734</v>
+        <v>0.1344910404542058</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02999464309110372</v>
+        <v>0.02969691233490198</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>865291010.7561851</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1782547523.857023</v>
+        <v>1175821562.023979</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1030164963543716</v>
+        <v>0.1449365398468823</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05210415026250722</v>
+        <v>0.05362890548584962</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>891273657.3950049</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1769992429.080358</v>
+        <v>1970703812.023367</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1475433000711343</v>
+        <v>0.1518267474711233</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04272370482479415</v>
+        <v>0.04482250013966754</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>56</v>
-      </c>
-      <c r="J41" t="n">
-        <v>884996311.239315</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3367644490.455626</v>
+        <v>4351694701.807695</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0832740642674374</v>
+        <v>0.08001576544959041</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03609188945823988</v>
+        <v>0.04455970086463958</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1683822230.982017</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2672876749.107916</v>
+        <v>2607121559.039787</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1834842147127777</v>
+        <v>0.1333605864406341</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0198162928821406</v>
+        <v>0.02394439934923768</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>81</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1336438405.803362</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1546027447.460565</v>
+        <v>2128258001.852812</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06748773026585432</v>
+        <v>0.08430627390503556</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03038494685985832</v>
+        <v>0.02885002840856992</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>773013739.4773476</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2398682979.916389</v>
+        <v>1984222674.094204</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1219994377074606</v>
+        <v>0.1310381768143276</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04282840080180576</v>
+        <v>0.0353778854774207</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1199341520.997147</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4642938491.033511</v>
+        <v>5139308089.654865</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1103350967005048</v>
+        <v>0.1141410355477459</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05757411168623296</v>
+        <v>0.04105743229887966</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>83</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2321469251.839468</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4452212263.62116</v>
+        <v>4950858152.709544</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1568553439277418</v>
+        <v>0.147888389839779</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05463457782854056</v>
+        <v>0.05468313056684913</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>63</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2226106156.561739</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3303805976.973876</v>
+        <v>4342164077.022576</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08064655942685962</v>
+        <v>0.1043915354577038</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02753530431423714</v>
+        <v>0.03488888028293354</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>77</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1651903063.288582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1863355090.935504</v>
+        <v>1683710726.372662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1199220309921221</v>
+        <v>0.1224211747468865</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03229974977709851</v>
+        <v>0.03290742044988238</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>931677520.9945233</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3889627660.340313</v>
+        <v>3336766092.811035</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1672930765654456</v>
+        <v>0.1290529762486359</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04770488286478439</v>
+        <v>0.05034752433923977</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>80</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1944813826.71459</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1277170527.164084</v>
+        <v>1370889156.008936</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1703928975619844</v>
+        <v>0.1432407398717138</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04988022909050157</v>
+        <v>0.04009403466161403</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>638585302.6231627</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3501299241.337195</v>
+        <v>3773812118.39118</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09205954351667106</v>
+        <v>0.1278823539309696</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04919664470901904</v>
+        <v>0.03804133252791186</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>96</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1750649706.493194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3601551688.139644</v>
+        <v>2977034450.07268</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1803168153087641</v>
+        <v>0.1661517598006763</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02289658232942575</v>
+        <v>0.02786498487830118</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>67</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1800775834.979809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3003494409.035518</v>
+        <v>4854586496.604761</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1209443105972793</v>
+        <v>0.1158983490262632</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04770669731657055</v>
+        <v>0.03912713796929245</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>76</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1501747190.307744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3725029396.669331</v>
+        <v>4525581011.328303</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2085167019617836</v>
+        <v>0.1664931983561927</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02128452520563666</v>
+        <v>0.02280321339529256</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>60</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1862514661.076226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1420698122.870719</v>
+        <v>1560649332.448933</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09953402868593875</v>
+        <v>0.1043816613386883</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04329953368453</v>
+        <v>0.04879320952796237</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>710349115.4416429</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2988773288.841309</v>
+        <v>4108579183.850574</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1140021936424537</v>
+        <v>0.1545808597406874</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0276013231843245</v>
+        <v>0.02531191914587677</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>74</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1494386647.861176</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1211844527.023303</v>
+        <v>1559977367.231009</v>
       </c>
       <c r="F58" t="n">
-        <v>0.158921721979863</v>
+        <v>0.2025138255281288</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02868788052814347</v>
+        <v>0.02817291374190435</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>605922320.9197258</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4880300384.445668</v>
+        <v>3814646861.439457</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1005777073960765</v>
+        <v>0.117177439979674</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04450713157476841</v>
+        <v>0.03872558689095646</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2440150125.68132</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3538130986.652772</v>
+        <v>2980109323.398341</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1464997094959568</v>
+        <v>0.1986748475809442</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02058998791695662</v>
+        <v>0.02363497553602378</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>72</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1769065620.11039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3011631194.004499</v>
+        <v>2059809861.546943</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1099198116233241</v>
+        <v>0.1746706563949803</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02668048213018692</v>
+        <v>0.02625285078258051</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>80</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1505815576.363059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1363455202.57625</v>
+        <v>1514874080.766977</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1921807845338223</v>
+        <v>0.1333763663914299</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03776607624084755</v>
+        <v>0.03408873121030113</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>681727563.8685097</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3420685372.584022</v>
+        <v>3467758224.079887</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1029244489558256</v>
+        <v>0.07178261856207332</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04674121924200017</v>
+        <v>0.03252671204568587</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1710342774.506902</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4203367655.201526</v>
+        <v>4991472940.730406</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1656133131293006</v>
+        <v>0.1838961229113385</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03519620607673202</v>
+        <v>0.03041646589785978</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>73</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2101683877.753287</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4714100627.109857</v>
+        <v>5733126921.456067</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1483642322177955</v>
+        <v>0.1472576106922582</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02642457652967514</v>
+        <v>0.02214953792612897</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>84</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2357050289.500647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4050314091.750835</v>
+        <v>4873676399.551732</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1617526729235204</v>
+        <v>0.1299436128542316</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03694189106906923</v>
+        <v>0.04174415040892139</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>68</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2025157022.112185</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2557122408.843503</v>
+        <v>2729585357.939421</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0631189828078942</v>
+        <v>0.07001850544340849</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03606015519142736</v>
+        <v>0.03746910134466698</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>75</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1278561260.191136</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4832813139.935617</v>
+        <v>5445410979.436322</v>
       </c>
       <c r="F68" t="n">
-        <v>0.149208734357179</v>
+        <v>0.1453339162992996</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03233937853316601</v>
+        <v>0.03275973767545599</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2416406616.213704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1889363702.839074</v>
+        <v>1692371081.779499</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1227586272019127</v>
+        <v>0.1206365612102908</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05745242301974034</v>
+        <v>0.03977403320034072</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>944681842.0898327</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2755639037.525657</v>
+        <v>2785845918.686742</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09543929973571028</v>
+        <v>0.06889635539887873</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0420538157921321</v>
+        <v>0.03827221188987988</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>66</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1377819479.906438</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5595849224.876386</v>
+        <v>5408438258.444669</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1664108995269633</v>
+        <v>0.1312914884384853</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0340363236084302</v>
+        <v>0.02674859773921661</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>85</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2797924762.620939</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1752840492.408047</v>
+        <v>1503987608.224027</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07377981281418229</v>
+        <v>0.07209906807752867</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05082449536497988</v>
+        <v>0.03702842582361818</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>876420232.4187555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3502955978.574896</v>
+        <v>3353970491.386293</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07036444395386103</v>
+        <v>0.07638332291429796</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05016125602703028</v>
+        <v>0.04002724471469307</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1751477939.21064</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2688067507.302231</v>
+        <v>3924885084.394696</v>
       </c>
       <c r="F74" t="n">
-        <v>0.174659604744263</v>
+        <v>0.1593022477200419</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02701238629451411</v>
+        <v>0.02173710436514688</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>80</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1344033846.002649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2336495349.506789</v>
+        <v>2307536130.379508</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1569745978522441</v>
+        <v>0.1234222651820828</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03226756157920996</v>
+        <v>0.03648306362747287</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1168247607.43997</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4200001557.170352</v>
+        <v>5055873820.120071</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1240589739189664</v>
+        <v>0.1016963882642025</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0303594931216972</v>
+        <v>0.03371801882030782</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2100000771.703381</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1859669767.552831</v>
+        <v>1859658041.513233</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1770559186305602</v>
+        <v>0.1432876718051427</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02686864794937063</v>
+        <v>0.02717203468046805</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>929834924.5584841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4266201930.729844</v>
+        <v>4727830496.068607</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09046155590665646</v>
+        <v>0.1190674009371022</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05356951091949998</v>
+        <v>0.04144958953376101</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>82</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2133100912.031866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1389818105.8654</v>
+        <v>1843359601.275123</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1324847278223678</v>
+        <v>0.1131526027521765</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02959333932517132</v>
+        <v>0.02939091894053191</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>694909067.855498</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5168424125.022327</v>
+        <v>5262989668.065783</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07162353667437497</v>
+        <v>0.07149840685991422</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02940885510504584</v>
+        <v>0.03694512567233981</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>49</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2584212120.080883</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4431877415.6839</v>
+        <v>4513614972.069714</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08915940840462926</v>
+        <v>0.1176324441790012</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02526547896098396</v>
+        <v>0.03005821677186329</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2215938687.051006</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4893330101.386805</v>
+        <v>4862439588.346095</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1864947143347048</v>
+        <v>0.1770277249118842</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01829822741112474</v>
+        <v>0.02772947870632655</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2446665040.556728</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2021229750.869617</v>
+        <v>2313211642.560119</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1155562257175532</v>
+        <v>0.1430539150366026</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03961947532942921</v>
+        <v>0.03333197036361982</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1010614863.377475</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2152644009.802334</v>
+        <v>1905614316.197283</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09630798101905792</v>
+        <v>0.1010805534610058</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03329239008798997</v>
+        <v>0.03812734830547798</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1076321987.520209</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2544797182.471009</v>
+        <v>3450662852.340434</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1457036431984256</v>
+        <v>0.1323281982457455</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03751816317725037</v>
+        <v>0.04948555209665469</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>88</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1272398601.112141</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2788799978.243006</v>
+        <v>2803189128.380583</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1330347745224894</v>
+        <v>0.1582721454714316</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02575697245990287</v>
+        <v>0.02635700273348507</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1394400126.433859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1171051114.677831</v>
+        <v>998838283.8583479</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1177107161240073</v>
+        <v>0.1657476445848826</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0395327744735147</v>
+        <v>0.04052370986144496</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>585525605.4962153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3638916619.456652</v>
+        <v>2851537939.413128</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1105529202990355</v>
+        <v>0.1774370281227447</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03099774524216259</v>
+        <v>0.03490389336878537</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>92</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1819458403.30134</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2396710324.500779</v>
+        <v>2263244045.595696</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1417557609297552</v>
+        <v>0.1159672703573071</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02692547384533923</v>
+        <v>0.03041973191215256</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>79</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1198355244.560461</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1686817939.427106</v>
+        <v>1954049416.935434</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1374689604003592</v>
+        <v>0.1208932470000144</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0382588551826496</v>
+        <v>0.05511088716629042</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>843408982.6102206</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1614559525.866103</v>
+        <v>1873856538.965961</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1346118311696285</v>
+        <v>0.1292366761772962</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05693212473306516</v>
+        <v>0.05833434723436825</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>807279786.5683031</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2725166621.040492</v>
+        <v>2482510010.662397</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1011435212400741</v>
+        <v>0.09744099509930765</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04763326788768479</v>
+        <v>0.04217389248059073</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>59</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1362583311.511146</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3207796737.907414</v>
+        <v>4942093458.616343</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08901283675168094</v>
+        <v>0.1206552059112977</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04873052363460344</v>
+        <v>0.05280410577858499</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1603898420.760816</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2355273466.878335</v>
+        <v>1600245941.651423</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1280462886336556</v>
+        <v>0.1524248081742003</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02960507025939805</v>
+        <v>0.03661707644328347</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1177636778.011759</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3221206866.52738</v>
+        <v>2556848959.236868</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1129852371466824</v>
+        <v>0.1228894855228734</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04707329250310555</v>
+        <v>0.03488387547093895</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>57</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1610603416.882014</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2050685397.688409</v>
+        <v>1948074814.742781</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1408219742706125</v>
+        <v>0.08753513877140937</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03752344521490363</v>
+        <v>0.03754980055612944</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1025342680.392611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3852965956.797738</v>
+        <v>4145965270.26292</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1103977741761551</v>
+        <v>0.1196262003179263</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02303899573574139</v>
+        <v>0.0229069248511405</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1926483022.952132</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3401882547.782749</v>
+        <v>2956956308.688282</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07999324944703495</v>
+        <v>0.08385234595313418</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02720008784966058</v>
+        <v>0.03232894900531028</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>62</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1700941285.822973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2885910700.158356</v>
+        <v>2571377892.922505</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1151776123714608</v>
+        <v>0.1348869946898179</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03417198034509011</v>
+        <v>0.03312889152758915</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>73</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1442955327.758378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2894966328.13318</v>
+        <v>3145844158.08511</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1512776446996779</v>
+        <v>0.1159057422662573</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02311555449326042</v>
+        <v>0.01911303443741212</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1447483146.514683</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2811868562.176385</v>
+        <v>2329729450.716662</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2226067217970384</v>
+        <v>0.2167656736151703</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05022661009675302</v>
+        <v>0.04015800140062391</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>94</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1405934345.245385</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_233.xlsx
+++ b/output/fit_clients/fit_round_233.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2188668730.60316</v>
+        <v>1731054355.658871</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08751291774001033</v>
+        <v>0.07722093923793052</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03260155884533811</v>
+        <v>0.02934972835332288</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2561129131.689509</v>
+        <v>2295858862.18295</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1133543466761212</v>
+        <v>0.1695109446923214</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04948947283225524</v>
+        <v>0.04485620122680466</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4629827487.547237</v>
+        <v>3450312094.290858</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1258022860578204</v>
+        <v>0.1647685688319381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03731253306484096</v>
+        <v>0.02930893636272839</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3107791798.826643</v>
+        <v>3669139551.632849</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09974581633884655</v>
+        <v>0.08321864409446857</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03888961568417861</v>
+        <v>0.03399170139935972</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2799320775.03507</v>
+        <v>2034529995.105205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09674969511076344</v>
+        <v>0.09075068564291169</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04320804408967707</v>
+        <v>0.04608400003780376</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2223617715.641873</v>
+        <v>2289792352.146424</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0950558507768669</v>
+        <v>0.08273190328711498</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03551331997728438</v>
+        <v>0.04442740562208516</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3847253401.056273</v>
+        <v>3094996514.919456</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1941224642538475</v>
+        <v>0.2036044562542923</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02868568159821688</v>
+        <v>0.02669807425505143</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1997234257.423753</v>
+        <v>1999656379.656886</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1221015790450451</v>
+        <v>0.1381118813189443</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03338905447028875</v>
+        <v>0.02442173924898633</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4824461080.073533</v>
+        <v>4211652967.211911</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1445644697300336</v>
+        <v>0.2157743190640438</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0473242679512278</v>
+        <v>0.03742914552722763</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3147145975.31968</v>
+        <v>2598749550.922736</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1616197585022101</v>
+        <v>0.1767084605730453</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04348848409357737</v>
+        <v>0.04889942616956626</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2261404261.813842</v>
+        <v>2661951858.516477</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1293275238672546</v>
+        <v>0.181909773354679</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05394881364799799</v>
+        <v>0.05146625812468187</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3717636478.823337</v>
+        <v>5162726258.927644</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09039340235717401</v>
+        <v>0.06580255217101029</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03120834419431294</v>
+        <v>0.030381551436584</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3804557349.807824</v>
+        <v>2703228856.901087</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1594712502991857</v>
+        <v>0.1283208650039011</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0330933486137965</v>
+        <v>0.03254322623882339</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1251696258.775896</v>
+        <v>1655963695.422087</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07271919096653001</v>
+        <v>0.06605280827388937</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02998246670051126</v>
+        <v>0.04169689291527811</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2578706680.450691</v>
+        <v>2753592356.530669</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1008659958161968</v>
+        <v>0.09034088091429632</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03846079154065211</v>
+        <v>0.04074972726074177</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4557504642.381228</v>
+        <v>4180622574.325831</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1194196761780018</v>
+        <v>0.1198476966267577</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03668616906105533</v>
+        <v>0.04767769880127515</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2425145386.426542</v>
+        <v>3676102332.8634</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1550799297800146</v>
+        <v>0.120917108007695</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02931998746317154</v>
+        <v>0.03317132147019176</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1016748103.847504</v>
+        <v>1075204591.233403</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1883462242293617</v>
+        <v>0.1894812105556062</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02250324617666522</v>
+        <v>0.02356570453925023</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2277080904.532784</v>
+        <v>2541911834.71738</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1455464565296496</v>
+        <v>0.1264916101137213</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0235161280279993</v>
+        <v>0.03185355806699579</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1791124731.065035</v>
+        <v>2499280104.093689</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06383162909482236</v>
+        <v>0.09070105153107387</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03619094995436677</v>
+        <v>0.03471256601713878</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2863067532.366063</v>
+        <v>2738034273.605125</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1338277037877841</v>
+        <v>0.1016636868511928</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05236540640218006</v>
+        <v>0.05167480322988452</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1011895229.550139</v>
+        <v>1412828308.662425</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1821717976928608</v>
+        <v>0.1240613188916404</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05273382001104696</v>
+        <v>0.03622876570354762</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3637113152.056577</v>
+        <v>3721916219.41211</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09550067869920373</v>
+        <v>0.1366517532198922</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02648929394732197</v>
+        <v>0.03242630927367812</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>978294745.2926222</v>
+        <v>1037036905.674327</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1095668203826691</v>
+        <v>0.1147000344671678</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03095913105594117</v>
+        <v>0.01889213404176803</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1239310250.946184</v>
+        <v>1342629763.919467</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1128706083669589</v>
+        <v>0.09906723937539391</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02467577632139883</v>
+        <v>0.02563121115030551</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3215676586.637217</v>
+        <v>3080553396.363094</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1248457246699688</v>
+        <v>0.1574512821463923</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01834978881163772</v>
+        <v>0.01893129268800292</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2955685286.464686</v>
+        <v>3526763824.428253</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1182049315157564</v>
+        <v>0.09175673774036952</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04702143608938698</v>
+        <v>0.04577123796768317</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4691633831.882605</v>
+        <v>5901005617.173388</v>
       </c>
       <c r="F29" t="n">
-        <v>0.138402406107206</v>
+        <v>0.1160717867018552</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03506149982783929</v>
+        <v>0.04086681540647723</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1593828265.131259</v>
+        <v>1721188111.97499</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1065346621273176</v>
+        <v>0.1292489150496729</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03649497769408091</v>
+        <v>0.03601524733683608</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1031901492.049522</v>
+        <v>1489696254.374599</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08385491479022128</v>
+        <v>0.07001160569977387</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04811534854232301</v>
+        <v>0.03322684879207486</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1774747215.925103</v>
+        <v>1472119728.681836</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1038260491346517</v>
+        <v>0.09087403211978531</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02507505536193631</v>
+        <v>0.03395720186913184</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2225172701.494647</v>
+        <v>1997757014.435114</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1757649721058599</v>
+        <v>0.1713647579479669</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0429568248108688</v>
+        <v>0.05636139812394932</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1196257391.897384</v>
+        <v>1535833266.668739</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09430374882705363</v>
+        <v>0.08313239330904132</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01765303940165592</v>
+        <v>0.02746372457794259</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1132134115.176324</v>
+        <v>1344545586.014418</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07488412962971405</v>
+        <v>0.07476046406858207</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04494682300288758</v>
+        <v>0.04151675226485596</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3224207718.057546</v>
+        <v>3193693386.665941</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1242326991888966</v>
+        <v>0.1291830521518054</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02449584433141463</v>
+        <v>0.02167334451780288</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2452403072.757516</v>
+        <v>2158626499.946678</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09156680206796912</v>
+        <v>0.07858034858196437</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03037668921460731</v>
+        <v>0.0295622960343771</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2109115205.523389</v>
+        <v>1916030119.434932</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08197989996047919</v>
+        <v>0.07936815098789389</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03743677434833192</v>
+        <v>0.02801243657143937</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1940691382.045582</v>
+        <v>2079982429.197311</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1344910404542058</v>
+        <v>0.1422398419307728</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02969691233490198</v>
+        <v>0.02503466111024466</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1175821562.023979</v>
+        <v>1503718407.685739</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1449365398468823</v>
+        <v>0.1274207600622208</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05362890548584962</v>
+        <v>0.0517379342066223</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1970703812.023367</v>
+        <v>2453569854.623785</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1518267474711233</v>
+        <v>0.1207270242058632</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04482250013966754</v>
+        <v>0.0353999990952364</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4351694701.807695</v>
+        <v>3023257284.109294</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08001576544959041</v>
+        <v>0.09706027434304855</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04455970086463958</v>
+        <v>0.03232987872790348</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2607121559.039787</v>
+        <v>1976170157.470958</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1333605864406341</v>
+        <v>0.1991183561924288</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02394439934923768</v>
+        <v>0.01647091514499211</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2128258001.852812</v>
+        <v>1795337493.232876</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08430627390503556</v>
+        <v>0.1030321091651257</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02885002840856992</v>
+        <v>0.03179069275752472</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1984222674.094204</v>
+        <v>1943043587.087867</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1310381768143276</v>
+        <v>0.1595516980617397</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0353778854774207</v>
+        <v>0.04037960967677905</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5139308089.654865</v>
+        <v>4047755858.925566</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1141410355477459</v>
+        <v>0.1482430054646183</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04105743229887966</v>
+        <v>0.03881226526640215</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4950858152.709544</v>
+        <v>3813172134.902168</v>
       </c>
       <c r="F47" t="n">
-        <v>0.147888389839779</v>
+        <v>0.1358432221719467</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05468313056684913</v>
+        <v>0.05461050828118309</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4342164077.022576</v>
+        <v>2941566272.158308</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1043915354577038</v>
+        <v>0.1013210355419967</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03488888028293354</v>
+        <v>0.03841959463465588</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1683710726.372662</v>
+        <v>1962534771.601161</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1224211747468865</v>
+        <v>0.1872661265541565</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03290742044988238</v>
+        <v>0.02812742689295568</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3336766092.811035</v>
+        <v>2930162219.773975</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1290529762486359</v>
+        <v>0.1223064980487497</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05034752433923977</v>
+        <v>0.03802934112663311</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1370889156.008936</v>
+        <v>1179717191.89417</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1432407398717138</v>
+        <v>0.1517844215068228</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04009403466161403</v>
+        <v>0.03949567281976214</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3773812118.39118</v>
+        <v>4749325842.332813</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1278823539309696</v>
+        <v>0.1165277937976716</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03804133252791186</v>
+        <v>0.04087678088011919</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2977034450.07268</v>
+        <v>3668340577.876914</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1661517598006763</v>
+        <v>0.166043746941813</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02786498487830118</v>
+        <v>0.03113095235984308</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4854586496.604761</v>
+        <v>3967979538.546041</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1158983490262632</v>
+        <v>0.1459271026815546</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03912713796929245</v>
+        <v>0.04961189739476937</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4525581011.328303</v>
+        <v>3719721907.106892</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1664931983561927</v>
+        <v>0.1818670011439853</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02280321339529256</v>
+        <v>0.02411296930903514</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1560649332.448933</v>
+        <v>1449507946.779604</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1043816613386883</v>
+        <v>0.1291837600112953</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04879320952796237</v>
+        <v>0.03559885226251321</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4108579183.850574</v>
+        <v>2785859883.06453</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1545808597406874</v>
+        <v>0.1764694236706492</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02531191914587677</v>
+        <v>0.02174980371166824</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1559977367.231009</v>
+        <v>1362214849.903579</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2025138255281288</v>
+        <v>0.1269516883448868</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02817291374190435</v>
+        <v>0.02446072728496344</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3814646861.439457</v>
+        <v>4572014622.066578</v>
       </c>
       <c r="F59" t="n">
-        <v>0.117177439979674</v>
+        <v>0.1053228547747</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03872558689095646</v>
+        <v>0.04434166966641909</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2980109323.398341</v>
+        <v>2882519000.626558</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1986748475809442</v>
+        <v>0.1833958362534992</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02363497553602378</v>
+        <v>0.02593445063756557</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2059809861.546943</v>
+        <v>2458195796.153778</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1746706563949803</v>
+        <v>0.1169103508993973</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02625285078258051</v>
+        <v>0.02246040586736853</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1514874080.766977</v>
+        <v>1863333025.338481</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1333763663914299</v>
+        <v>0.1318343954807251</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03408873121030113</v>
+        <v>0.03141972656044708</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3467758224.079887</v>
+        <v>4593330656.466109</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07178261856207332</v>
+        <v>0.09451331243402013</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03252671204568587</v>
+        <v>0.03122440091430958</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4991472940.730406</v>
+        <v>5194641221.839008</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1838961229113385</v>
+        <v>0.1674589371384605</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03041646589785978</v>
+        <v>0.03085659980868871</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5733126921.456067</v>
+        <v>3629971899.821254</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1472576106922582</v>
+        <v>0.1294493440540335</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02214953792612897</v>
+        <v>0.0282897591530414</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4873676399.551732</v>
+        <v>4672132985.023204</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1299436128542316</v>
+        <v>0.1583147350653142</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04174415040892139</v>
+        <v>0.03290656107116906</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2729585357.939421</v>
+        <v>3392819867.593012</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07001850544340849</v>
+        <v>0.09323997155963325</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03746910134466698</v>
+        <v>0.03880909982947706</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5445410979.436322</v>
+        <v>3981870212.741564</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1453339162992996</v>
+        <v>0.1104622523973423</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03275973767545599</v>
+        <v>0.04954394502450628</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1692371081.779499</v>
+        <v>1651633860.867532</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1206365612102908</v>
+        <v>0.1726630508783142</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03977403320034072</v>
+        <v>0.03741635263607103</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2785845918.686742</v>
+        <v>3072671028.748733</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06889635539887873</v>
+        <v>0.07765263371405381</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03827221188987988</v>
+        <v>0.0421448581707753</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5408438258.444669</v>
+        <v>3522094098.286834</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1312914884384853</v>
+        <v>0.1558292720399367</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02674859773921661</v>
+        <v>0.03235946042195909</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1503987608.224027</v>
+        <v>1876603179.617697</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07209906807752867</v>
+        <v>0.093899397960011</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03702842582361818</v>
+        <v>0.05203609158421228</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3353970491.386293</v>
+        <v>2537339936.968082</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07638332291429796</v>
+        <v>0.1105240072101331</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04002724471469307</v>
+        <v>0.04631115264582538</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3924885084.394696</v>
+        <v>3495056193.911496</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1593022477200419</v>
+        <v>0.1513200453506657</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02173710436514688</v>
+        <v>0.02715710775937248</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2307536130.379508</v>
+        <v>1850950987.6515</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1234222651820828</v>
+        <v>0.1148521797538963</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03648306362747287</v>
+        <v>0.02438471951704675</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5055873820.120071</v>
+        <v>4518033447.908713</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1016963882642025</v>
+        <v>0.1147179690149822</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03371801882030782</v>
+        <v>0.02753239308998803</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1859658041.513233</v>
+        <v>1570391765.290972</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1432876718051427</v>
+        <v>0.1857242513289133</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02717203468046805</v>
+        <v>0.02209400662299215</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4727830496.068607</v>
+        <v>3116642881.77394</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1190674009371022</v>
+        <v>0.1285385584709118</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04144958953376101</v>
+        <v>0.04649112285176824</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1843359601.275123</v>
+        <v>1889598175.714214</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1131526027521765</v>
+        <v>0.1159413418428043</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02939091894053191</v>
+        <v>0.03893415331922558</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5262989668.065783</v>
+        <v>4727552262.777456</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07149840685991422</v>
+        <v>0.07424450374451715</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03694512567233981</v>
+        <v>0.03346490493475433</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4513614972.069714</v>
+        <v>4401579304.332185</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1176324441790012</v>
+        <v>0.1014388587140626</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03005821677186329</v>
+        <v>0.02018283488373813</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4862439588.346095</v>
+        <v>3758715909.280489</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1770277249118842</v>
+        <v>0.2052479042318527</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02772947870632655</v>
+        <v>0.01958537564155974</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2313211642.560119</v>
+        <v>2382232719.618305</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1430539150366026</v>
+        <v>0.1221237278302695</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03333197036361982</v>
+        <v>0.02808223266072666</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1905614316.197283</v>
+        <v>2047050385.920666</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1010805534610058</v>
+        <v>0.09364440861718569</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03812734830547798</v>
+        <v>0.03820843654758921</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3450662852.340434</v>
+        <v>3600177953.338459</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1323281982457455</v>
+        <v>0.1200565921639713</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04948555209665469</v>
+        <v>0.05635191737617087</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2803189128.380583</v>
+        <v>1747034043.114744</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1582721454714316</v>
+        <v>0.1673259426035581</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02635700273348507</v>
+        <v>0.02237213290928658</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>998838283.8583479</v>
+        <v>1340892955.079263</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1657476445848826</v>
+        <v>0.1156314916617911</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04052370986144496</v>
+        <v>0.04316186997092278</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2851537939.413128</v>
+        <v>2970963983.786661</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1774370281227447</v>
+        <v>0.1091841636130329</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03490389336878537</v>
+        <v>0.0362326004213098</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2263244045.595696</v>
+        <v>2922447823.852489</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1159672703573071</v>
+        <v>0.1232391463191086</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03041973191215256</v>
+        <v>0.03023577838781522</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1954049416.935434</v>
+        <v>1825463709.301286</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1208932470000144</v>
+        <v>0.1144570360631283</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05511088716629042</v>
+        <v>0.04344984642646878</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1873856538.965961</v>
+        <v>1377046244.81967</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1292366761772962</v>
+        <v>0.140035529979147</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05833434723436825</v>
+        <v>0.05242038747625213</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2482510010.662397</v>
+        <v>2746284625.093151</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09744099509930765</v>
+        <v>0.08384617401126238</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04217389248059073</v>
+        <v>0.03851650470910353</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4942093458.616343</v>
+        <v>4417961099.692957</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1206552059112977</v>
+        <v>0.1265675777353474</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05280410577858499</v>
+        <v>0.05337075835482984</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1600245941.651423</v>
+        <v>1996318196.264908</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1524248081742003</v>
+        <v>0.1113982987428606</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03661707644328347</v>
+        <v>0.03898434657100527</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2556848959.236868</v>
+        <v>3059986984.140457</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1228894855228734</v>
+        <v>0.1114608405662575</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03488387547093895</v>
+        <v>0.05166284422369369</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1948074814.742781</v>
+        <v>2170226484.90367</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08753513877140937</v>
+        <v>0.09656660127843651</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03754980055612944</v>
+        <v>0.03509587261608024</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4145965270.26292</v>
+        <v>4321356985.877903</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1196262003179263</v>
+        <v>0.1200462290785046</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0229069248511405</v>
+        <v>0.02082248410546467</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2956956308.688282</v>
+        <v>3370071417.64551</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08385234595313418</v>
+        <v>0.08888393411449518</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03232894900531028</v>
+        <v>0.02940423589499105</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2571377892.922505</v>
+        <v>2346419974.104304</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1348869946898179</v>
+        <v>0.1219101245364384</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03312889152758915</v>
+        <v>0.02558188066103556</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3145844158.08511</v>
+        <v>4365039579.31324</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1159057422662573</v>
+        <v>0.1087578206496704</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01911303443741212</v>
+        <v>0.01845887239957471</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2329729450.716662</v>
+        <v>2615115615.961542</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2167656736151703</v>
+        <v>0.1641119360408896</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04015800140062391</v>
+        <v>0.0580457706432421</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_233.xlsx
+++ b/output/fit_clients/fit_round_233.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1731054355.658871</v>
+        <v>2488320825.973763</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07722093923793052</v>
+        <v>0.1062827158965942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02934972835332288</v>
+        <v>0.04196684318081208</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2295858862.18295</v>
+        <v>2480928349.75108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1695109446923214</v>
+        <v>0.1571091418847768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04485620122680466</v>
+        <v>0.04922751242536033</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3450312094.290858</v>
+        <v>5009579650.227156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1647685688319381</v>
+        <v>0.1214432215473243</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02930893636272839</v>
+        <v>0.02439565246490099</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>126</v>
+      </c>
+      <c r="J4" t="n">
+        <v>233</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3669139551.632849</v>
+        <v>3027426732.729269</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08321864409446857</v>
+        <v>0.09125598882639137</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03399170139935972</v>
+        <v>0.03858049325245088</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96</v>
+      </c>
+      <c r="J5" t="n">
+        <v>232</v>
+      </c>
+      <c r="K5" t="n">
+        <v>63.16616503520405</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2034529995.105205</v>
+        <v>2374852547.980956</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09075068564291169</v>
+        <v>0.1140951988864469</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04608400003780376</v>
+        <v>0.04511144833265716</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2289792352.146424</v>
+        <v>2129944602.595291</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08273190328711498</v>
+        <v>0.09496397766658742</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04442740562208516</v>
+        <v>0.04532192070564762</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3094996514.919456</v>
+        <v>2734728995.553656</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2036044562542923</v>
+        <v>0.1717299708053354</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02669807425505143</v>
+        <v>0.03308808553032908</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>66</v>
+      </c>
+      <c r="J8" t="n">
+        <v>230</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1999656379.656886</v>
+        <v>1866185202.416223</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1381118813189443</v>
+        <v>0.1436761913020684</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02442173924898633</v>
+        <v>0.03118404043135438</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4211652967.211911</v>
+        <v>5206343011.78725</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2157743190640438</v>
+        <v>0.2013862004656811</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03742914552722763</v>
+        <v>0.0395176123374878</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>212</v>
+      </c>
+      <c r="J10" t="n">
+        <v>233</v>
+      </c>
+      <c r="K10" t="n">
+        <v>114.5014292861479</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2598749550.922736</v>
+        <v>3478949291.195659</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1767084605730453</v>
+        <v>0.1660268198334867</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04889942616956626</v>
+        <v>0.03562409280997686</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>97</v>
+      </c>
+      <c r="J11" t="n">
+        <v>232</v>
+      </c>
+      <c r="K11" t="n">
+        <v>78.95253432507225</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2661951858.516477</v>
+        <v>2821568271.626973</v>
       </c>
       <c r="F12" t="n">
-        <v>0.181909773354679</v>
+        <v>0.1729641554352085</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05146625812468187</v>
+        <v>0.03255143578349719</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5162726258.927644</v>
+        <v>4953501923.514938</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06580255217101029</v>
+        <v>0.07083348408987798</v>
       </c>
       <c r="G13" t="n">
-        <v>0.030381551436584</v>
+        <v>0.02478065225399887</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>117</v>
+      </c>
+      <c r="J13" t="n">
+        <v>233</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2703228856.901087</v>
+        <v>2424102874.821661</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1283208650039011</v>
+        <v>0.1365036523281264</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03254322623882339</v>
+        <v>0.02937626350700911</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>227</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1655963695.422087</v>
+        <v>1363782694.197848</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06605280827388937</v>
+        <v>0.07991938210259499</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04169689291527811</v>
+        <v>0.03796201050059565</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2753592356.530669</v>
+        <v>2143075743.096628</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09034088091429632</v>
+        <v>0.09565363444251623</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04074972726074177</v>
+        <v>0.03611763697221849</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4180622574.325831</v>
+        <v>3816298014.961907</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1198476966267577</v>
+        <v>0.1491662570540742</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04767769880127515</v>
+        <v>0.04713093685179272</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>112</v>
+      </c>
+      <c r="J17" t="n">
+        <v>233</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3676102332.8634</v>
+        <v>3384205336.355578</v>
       </c>
       <c r="F18" t="n">
-        <v>0.120917108007695</v>
+        <v>0.1352746251369819</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03317132147019176</v>
+        <v>0.02586311346602221</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>233</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1075204591.233403</v>
+        <v>958946455.7133853</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1894812105556062</v>
+        <v>0.1589256593936406</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02356570453925023</v>
+        <v>0.0195013905941729</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2541911834.71738</v>
+        <v>2080243967.660354</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1264916101137213</v>
+        <v>0.149454509000618</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03185355806699579</v>
+        <v>0.02310471972109005</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2499280104.093689</v>
+        <v>1933478346.727623</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09070105153107387</v>
+        <v>0.09789141804613466</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03471256601713878</v>
+        <v>0.03482781375994198</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2738034273.605125</v>
+        <v>2463031342.904558</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1016636868511928</v>
+        <v>0.1380029706383928</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05167480322988452</v>
+        <v>0.04933097979165173</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>59</v>
+      </c>
+      <c r="J22" t="n">
+        <v>231</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1412828308.662425</v>
+        <v>1002411558.786401</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1240613188916404</v>
+        <v>0.1375931068140417</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03622876570354762</v>
+        <v>0.03916987312687219</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3721916219.41211</v>
+        <v>3144559442.353115</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1366517532198922</v>
+        <v>0.09535795739456689</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03242630927367812</v>
+        <v>0.02508368541578686</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>233</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1037036905.674327</v>
+        <v>1392891911.705316</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1147000344671678</v>
+        <v>0.1191098065651174</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01889213404176803</v>
+        <v>0.02660408601799194</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1342629763.919467</v>
+        <v>1429480682.093252</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09906723937539391</v>
+        <v>0.1144981193115738</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02563121115030551</v>
+        <v>0.026886678919669</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3080553396.363094</v>
+        <v>2931054092.330238</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1574512821463923</v>
+        <v>0.1095815930458997</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01893129268800292</v>
+        <v>0.02516275194695096</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>94</v>
+      </c>
+      <c r="J27" t="n">
+        <v>232</v>
+      </c>
+      <c r="K27" t="n">
+        <v>44.39902822473472</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3526763824.428253</v>
+        <v>2402948238.280289</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09175673774036952</v>
+        <v>0.1228535989385401</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04577123796768317</v>
+        <v>0.03983825992305229</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>48</v>
+      </c>
+      <c r="J28" t="n">
+        <v>230</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5901005617.173388</v>
+        <v>4330117638.467685</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1160717867018552</v>
+        <v>0.107209298094954</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04086681540647723</v>
+        <v>0.03254489462378841</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>222</v>
+      </c>
+      <c r="J29" t="n">
+        <v>233</v>
+      </c>
+      <c r="K29" t="n">
+        <v>119.2511047710247</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1721188111.97499</v>
+        <v>1460535385.79073</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1292489150496729</v>
+        <v>0.1344169540827269</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03601524733683608</v>
+        <v>0.02694519989319982</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1489696254.374599</v>
+        <v>1108273009.835854</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07001160569977387</v>
+        <v>0.08439604872060777</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03322684879207486</v>
+        <v>0.05161750173288469</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1472119728.681836</v>
+        <v>1343004001.111337</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09087403211978531</v>
+        <v>0.1122209103776318</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03395720186913184</v>
+        <v>0.0327856823977099</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1997757014.435114</v>
+        <v>2134737361.722749</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1713647579479669</v>
+        <v>0.1916351376857436</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05636139812394932</v>
+        <v>0.04046081347328285</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1535833266.668739</v>
+        <v>1237939811.872936</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08313239330904132</v>
+        <v>0.08860119484457214</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02746372457794259</v>
+        <v>0.01921836148868977</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1344545586.014418</v>
+        <v>1308491248.963567</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07476046406858207</v>
+        <v>0.08575299771300593</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04151675226485596</v>
+        <v>0.03316730543841309</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3193693386.665941</v>
+        <v>2744317450.790864</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1291830521518054</v>
+        <v>0.1468195202692257</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02167334451780288</v>
+        <v>0.02843113606744188</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2158626499.946678</v>
+        <v>2079592648.59931</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07858034858196437</v>
+        <v>0.08432448229507822</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0295622960343771</v>
+        <v>0.02956641421557592</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1916030119.434932</v>
+        <v>2091043389.689995</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07936815098789389</v>
+        <v>0.08688356821610795</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02801243657143937</v>
+        <v>0.0390592580543829</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2079982429.197311</v>
+        <v>1371247188.08446</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1422398419307728</v>
+        <v>0.1226258902811947</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02503466111024466</v>
+        <v>0.02640853075198972</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1503718407.685739</v>
+        <v>1807125061.61896</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1274207600622208</v>
+        <v>0.1011157757344639</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0517379342066223</v>
+        <v>0.04270257693400679</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2453569854.623785</v>
+        <v>2883465577.601234</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1207270242058632</v>
+        <v>0.1195691927174707</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0353999990952364</v>
+        <v>0.04629601778870153</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3023257284.109294</v>
+        <v>3735841098.194457</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09706027434304855</v>
+        <v>0.09150199771827358</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03232987872790348</v>
+        <v>0.03509202997225704</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>95</v>
+      </c>
+      <c r="J42" t="n">
+        <v>232</v>
+      </c>
+      <c r="K42" t="n">
+        <v>89.5999773349703</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1976170157.470958</v>
+        <v>2903195497.953501</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1991183561924288</v>
+        <v>0.1738186979938673</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01647091514499211</v>
+        <v>0.01953446880792763</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1795337493.232876</v>
+        <v>1447620735.674666</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1030321091651257</v>
+        <v>0.08702720363236029</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03179069275752472</v>
+        <v>0.0295010613402815</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1943043587.087867</v>
+        <v>1771917404.894215</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1595516980617397</v>
+        <v>0.1330509508289671</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04037960967677905</v>
+        <v>0.0536607091547393</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4047755858.925566</v>
+        <v>4952085460.491695</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1482430054646183</v>
+        <v>0.1500009433365475</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03881226526640215</v>
+        <v>0.05736012628388138</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>134</v>
+      </c>
+      <c r="J46" t="n">
+        <v>232</v>
+      </c>
+      <c r="K46" t="n">
+        <v>110.0066917621527</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3813172134.902168</v>
+        <v>3825913878.892038</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1358432221719467</v>
+        <v>0.1684755541410753</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05461050828118309</v>
+        <v>0.04081309619047632</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>104</v>
+      </c>
+      <c r="J47" t="n">
+        <v>232</v>
+      </c>
+      <c r="K47" t="n">
+        <v>72.64160599138472</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2941566272.158308</v>
+        <v>4258985529.454152</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1013210355419967</v>
+        <v>0.08843811868893652</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03841959463465588</v>
+        <v>0.03042391006358355</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>113</v>
+      </c>
+      <c r="J48" t="n">
+        <v>233</v>
+      </c>
+      <c r="K48" t="n">
+        <v>115.8747530776807</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1962534771.601161</v>
+        <v>1964458216.701023</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1872661265541565</v>
+        <v>0.1372834162785743</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02812742689295568</v>
+        <v>0.03292093764691798</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2930162219.773975</v>
+        <v>3419227281.526894</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1223064980487497</v>
+        <v>0.1645274779518847</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03802934112663311</v>
+        <v>0.05242018455218128</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>77</v>
+      </c>
+      <c r="J50" t="n">
+        <v>232</v>
+      </c>
+      <c r="K50" t="n">
+        <v>71.16280212690117</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1179717191.89417</v>
+        <v>987563110.261193</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1517844215068228</v>
+        <v>0.1509739566959197</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03949567281976214</v>
+        <v>0.0476904128409307</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4749325842.332813</v>
+        <v>3904515095.378776</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1165277937976716</v>
+        <v>0.1257199663959455</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04087678088011919</v>
+        <v>0.0374904884499782</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>153</v>
+      </c>
+      <c r="J52" t="n">
+        <v>233</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3668340577.876914</v>
+        <v>2616961934.571915</v>
       </c>
       <c r="F53" t="n">
-        <v>0.166043746941813</v>
+        <v>0.187907068662776</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03113095235984308</v>
+        <v>0.02580940394535741</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>32</v>
+      </c>
+      <c r="J53" t="n">
+        <v>231</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3967979538.546041</v>
+        <v>4709334830.583681</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1459271026815546</v>
+        <v>0.1655295149330183</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04961189739476937</v>
+        <v>0.0514937293821374</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>124</v>
+      </c>
+      <c r="J54" t="n">
+        <v>233</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3719721907.106892</v>
+        <v>3061945563.241829</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1818670011439853</v>
+        <v>0.2016030898342868</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02411296930903514</v>
+        <v>0.02530750302530075</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>104</v>
+      </c>
+      <c r="J55" t="n">
+        <v>231</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1449507946.779604</v>
+        <v>1683901572.328514</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1291837600112953</v>
+        <v>0.1057375150268999</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03559885226251321</v>
+        <v>0.03840136306356301</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2785859883.06453</v>
+        <v>3229692877.314788</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1764694236706492</v>
+        <v>0.127513236365521</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02174980371166824</v>
+        <v>0.01932484108425491</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>91</v>
+      </c>
+      <c r="J57" t="n">
+        <v>233</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1362214849.903579</v>
+        <v>1389427500.720281</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1269516883448868</v>
+        <v>0.1958708973929844</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02446072728496344</v>
+        <v>0.03326097574569635</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4572014622.066578</v>
+        <v>4203607971.740897</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1053228547747</v>
+        <v>0.08294626213088258</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04434166966641909</v>
+        <v>0.04454774480800835</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>113</v>
+      </c>
+      <c r="J59" t="n">
+        <v>232</v>
+      </c>
+      <c r="K59" t="n">
+        <v>97.10134904376881</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2882519000.626558</v>
+        <v>2831200129.125971</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1833958362534992</v>
+        <v>0.1851853707872546</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02593445063756557</v>
+        <v>0.02273075722576084</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>33</v>
+      </c>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2458195796.153778</v>
+        <v>2411346722.475955</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1169103508993973</v>
+        <v>0.1524040133858149</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02246040586736853</v>
+        <v>0.02732779992930895</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1863333025.338481</v>
+        <v>1636573950.418444</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1318343954807251</v>
+        <v>0.163141993923301</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03141972656044708</v>
+        <v>0.03250567401040143</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4593330656.466109</v>
+        <v>4599772518.379571</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09451331243402013</v>
+        <v>0.07700213237930592</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03122440091430958</v>
+        <v>0.0304316691572902</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>113</v>
+      </c>
+      <c r="J63" t="n">
+        <v>233</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5194641221.839008</v>
+        <v>5112806823.533269</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1674589371384605</v>
+        <v>0.1215151830128248</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03085659980868871</v>
+        <v>0.02977774586599855</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>115</v>
+      </c>
+      <c r="J64" t="n">
+        <v>232</v>
+      </c>
+      <c r="K64" t="n">
+        <v>103.1671672999191</v>
       </c>
     </row>
     <row r="65">
@@ -2250,17 +2730,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3629971899.821254</v>
+        <v>5838260764.354255</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1294493440540335</v>
+        <v>0.1617586053965893</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0282897591530414</v>
+        <v>0.0299514811826153</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>185</v>
+      </c>
+      <c r="J65" t="n">
+        <v>233</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4672132985.023204</v>
+        <v>4595322501.740484</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1583147350653142</v>
+        <v>0.1526845408099827</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03290656107116906</v>
+        <v>0.03512949172647556</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>115</v>
+      </c>
+      <c r="J66" t="n">
+        <v>232</v>
+      </c>
+      <c r="K66" t="n">
+        <v>97.69611805683147</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3392819867.593012</v>
+        <v>2223688294.777529</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09323997155963325</v>
+        <v>0.0779597106885124</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03880909982947706</v>
+        <v>0.0318576327978877</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>226</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3981870212.741564</v>
+        <v>5892136838.001821</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1104622523973423</v>
+        <v>0.1048259686264519</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04954394502450628</v>
+        <v>0.04368034793778924</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>117</v>
+      </c>
+      <c r="J68" t="n">
+        <v>233</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1651633860.867532</v>
+        <v>2149733480.79937</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1726630508783142</v>
+        <v>0.1651365668286738</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03741635263607103</v>
+        <v>0.04245426630809811</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3072671028.748733</v>
+        <v>2652852855.932832</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07765263371405381</v>
+        <v>0.09029919426936774</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0421448581707753</v>
+        <v>0.03425717954078459</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>36</v>
+      </c>
+      <c r="J70" t="n">
+        <v>231</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3522094098.286834</v>
+        <v>4891861260.852942</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1558292720399367</v>
+        <v>0.1180478921963641</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03235946042195909</v>
+        <v>0.03233895926176105</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>177</v>
+      </c>
+      <c r="J71" t="n">
+        <v>233</v>
+      </c>
+      <c r="K71" t="n">
+        <v>110.9808464043284</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1876603179.617697</v>
+        <v>1956572272.861413</v>
       </c>
       <c r="F72" t="n">
-        <v>0.093899397960011</v>
+        <v>0.0898608694369141</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05203609158421228</v>
+        <v>0.03294414209678219</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2537339936.968082</v>
+        <v>3172359572.855153</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1105240072101331</v>
+        <v>0.09549940998473495</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04631115264582538</v>
+        <v>0.04238460462926302</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3495056193.911496</v>
+        <v>2758380187.156667</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1513200453506657</v>
+        <v>0.143038934523339</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02715710775937248</v>
+        <v>0.02738370807941475</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>67</v>
+      </c>
+      <c r="J74" t="n">
+        <v>229</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1850950987.6515</v>
+        <v>1793288285.200651</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1148521797538963</v>
+        <v>0.1343604975464393</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02438471951704675</v>
+        <v>0.02740647107383505</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4518033447.908713</v>
+        <v>3936601623.162597</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1147179690149822</v>
+        <v>0.08282911460496645</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02753239308998803</v>
+        <v>0.03011696976368061</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>108</v>
+      </c>
+      <c r="J76" t="n">
+        <v>232</v>
+      </c>
+      <c r="K76" t="n">
+        <v>82.90361263489453</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1570391765.290972</v>
+        <v>2078751186.51656</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1857242513289133</v>
+        <v>0.1800745292606792</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02209400662299215</v>
+        <v>0.02224369227361581</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3116642881.77394</v>
+        <v>4560618993.944376</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1285385584709118</v>
+        <v>0.1005630787008965</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04649112285176824</v>
+        <v>0.04315683577300915</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>117</v>
+      </c>
+      <c r="J78" t="n">
+        <v>232</v>
+      </c>
+      <c r="K78" t="n">
+        <v>110.1431752990599</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1889598175.714214</v>
+        <v>1321508710.004362</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1159413418428043</v>
+        <v>0.1662225511221458</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03893415331922558</v>
+        <v>0.03071779050925142</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4727552262.777456</v>
+        <v>4307347837.729097</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07424450374451715</v>
+        <v>0.08634111355719681</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03346490493475433</v>
+        <v>0.03655891217751129</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>113</v>
+      </c>
+      <c r="J80" t="n">
+        <v>233</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4401579304.332185</v>
+        <v>3508646735.805868</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1014388587140626</v>
+        <v>0.1373251506910455</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02018283488373813</v>
+        <v>0.02286276472342642</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>107</v>
+      </c>
+      <c r="J81" t="n">
+        <v>233</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3758715909.280489</v>
+        <v>5244326892.044878</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2052479042318527</v>
+        <v>0.2167397874561883</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01958537564155974</v>
+        <v>0.02139485091625996</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>175</v>
+      </c>
+      <c r="J82" t="n">
+        <v>233</v>
+      </c>
+      <c r="K82" t="n">
+        <v>111.2058731635499</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2382232719.618305</v>
+        <v>2354593413.969939</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1221237278302695</v>
+        <v>0.1153468603760106</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02808223266072666</v>
+        <v>0.03286549284542538</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2047050385.920666</v>
+        <v>2514068802.592678</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09364440861718569</v>
+        <v>0.07453688831362675</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03820843654758921</v>
+        <v>0.03227978379842466</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3600177953.338459</v>
+        <v>2840561791.741825</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1200565921639713</v>
+        <v>0.1653442124645226</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05635191737617087</v>
+        <v>0.04755271313116002</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1747034043.114744</v>
+        <v>2766158488.096678</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1673259426035581</v>
+        <v>0.1068242360318701</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02237213290928658</v>
+        <v>0.02595715275484583</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1340892955.079263</v>
+        <v>1268852740.069238</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1156314916617911</v>
+        <v>0.146006156713513</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04316186997092278</v>
+        <v>0.04416472058291569</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3545,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2970963983.786661</v>
+        <v>3673817627.844441</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1091841636130329</v>
+        <v>0.1087951292238707</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0362326004213098</v>
+        <v>0.03928457900575437</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>34</v>
+      </c>
+      <c r="J88" t="n">
+        <v>232</v>
+      </c>
+      <c r="K88" t="n">
+        <v>86.2584579723879</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2922447823.852489</v>
+        <v>2936276204.927379</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1232391463191086</v>
+        <v>0.1315985458146962</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03023577838781522</v>
+        <v>0.02600701242740012</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1825463709.301286</v>
+        <v>1339353878.684591</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1144570360631283</v>
+        <v>0.09655980933766983</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04344984642646878</v>
+        <v>0.04921227361147129</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1377046244.81967</v>
+        <v>1657835254.500112</v>
       </c>
       <c r="F91" t="n">
-        <v>0.140035529979147</v>
+        <v>0.1255334178723676</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05242038747625213</v>
+        <v>0.03797411230046271</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2746284625.093151</v>
+        <v>2946032529.514956</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08384617401126238</v>
+        <v>0.08164653284148275</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03851650470910353</v>
+        <v>0.03960873926176788</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4417961099.692957</v>
+        <v>4471199356.642066</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1265675777353474</v>
+        <v>0.1425372053741212</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05337075835482984</v>
+        <v>0.04116359254448226</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>103</v>
+      </c>
+      <c r="J93" t="n">
+        <v>233</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1996318196.264908</v>
+        <v>2333199735.081582</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1113982987428606</v>
+        <v>0.1174398007488432</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03898434657100527</v>
+        <v>0.03216642909899788</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3059986984.140457</v>
+        <v>2930178378.934193</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1114608405662575</v>
+        <v>0.124990070120876</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05166284422369369</v>
+        <v>0.05231601968743078</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2170226484.90367</v>
+        <v>1544620290.019935</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09656660127843651</v>
+        <v>0.138043653182765</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03509587261608024</v>
+        <v>0.04570851822229075</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4321356985.877903</v>
+        <v>5325956742.856709</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1200462290785046</v>
+        <v>0.166105797206769</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02082248410546467</v>
+        <v>0.02754037265178504</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>113</v>
+      </c>
+      <c r="J97" t="n">
+        <v>232</v>
+      </c>
+      <c r="K97" t="n">
+        <v>107.3147292640688</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3370071417.64551</v>
+        <v>2887940027.797164</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08888393411449518</v>
+        <v>0.1247742553223288</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02940423589499105</v>
+        <v>0.02623745768331216</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>56</v>
+      </c>
+      <c r="J98" t="n">
+        <v>229</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2346419974.104304</v>
+        <v>2558015189.177685</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1219101245364384</v>
+        <v>0.13008778157689</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02558188066103556</v>
+        <v>0.03122403997951724</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4365039579.31324</v>
+        <v>4762242127.416447</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1087578206496704</v>
+        <v>0.1500975633421025</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01845887239957471</v>
+        <v>0.02195833415275149</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>98</v>
+      </c>
+      <c r="J100" t="n">
+        <v>232</v>
+      </c>
+      <c r="K100" t="n">
+        <v>106.3276949011629</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2615115615.961542</v>
+        <v>2746970556.823341</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1641119360408896</v>
+        <v>0.2081141657195174</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0580457706432421</v>
+        <v>0.04090206653999707</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
